--- a/1825_StudentActiveInSemester.xlsx
+++ b/1825_StudentActiveInSemester.xlsx
@@ -766,10 +766,10 @@
         <v>17</v>
       </c>
       <c r="F2" s="2">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="H2" s="2">
         <v>0</v>
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="J2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M2" s="2">
-        <v>0</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -807,10 +807,10 @@
         <v>17</v>
       </c>
       <c r="F3" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>5</v>
+        <v>4.886792452</v>
       </c>
       <c r="K3" s="2">
-        <v>5</v>
+        <v>4.886792452</v>
       </c>
       <c r="L3" s="2">
-        <v>5</v>
+        <v>4.886792452</v>
       </c>
       <c r="M3" s="2">
-        <v>1</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -848,10 +848,10 @@
         <v>17</v>
       </c>
       <c r="F4" s="2">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="G4" s="2">
-        <v>67</v>
+        <v>116</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -860,16 +860,16 @@
         <v>0</v>
       </c>
       <c r="J4" s="2">
-        <v>0</v>
+        <v>4.962686567</v>
       </c>
       <c r="K4" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>4.962686567</v>
       </c>
       <c r="M4" s="2">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -889,10 +889,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G5" s="2">
-        <v>49</v>
+        <v>246</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -901,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -930,10 +930,10 @@
         <v>17</v>
       </c>
       <c r="F6" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -942,16 +942,16 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M6" s="2">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -974,7 +974,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="2">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -983,16 +983,16 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -1012,10 +1012,10 @@
         <v>17</v>
       </c>
       <c r="F8" s="2">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="G8" s="2">
-        <v>37</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -1024,16 +1024,16 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8" s="2">
-        <v>0</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -1053,10 +1053,10 @@
         <v>17</v>
       </c>
       <c r="F9" s="2">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G9" s="2">
-        <v>48</v>
+        <v>118</v>
       </c>
       <c r="H9" s="2">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>4.935064935</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
+        <v>4.909090909</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>4.974025974</v>
       </c>
       <c r="M9" s="2">
-        <v>0</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1094,10 +1094,10 @@
         <v>17</v>
       </c>
       <c r="F10" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G10" s="2">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>5</v>
+        <v>4.885714285</v>
       </c>
       <c r="K10" s="2">
-        <v>5</v>
+        <v>4.885714285</v>
       </c>
       <c r="L10" s="2">
-        <v>5</v>
+        <v>4.885714285</v>
       </c>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1135,10 +1135,10 @@
         <v>17</v>
       </c>
       <c r="F11" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G11" s="2">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -1147,16 +1147,16 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>4.8125</v>
       </c>
       <c r="K11" s="2">
-        <v>0</v>
+        <v>4.8125</v>
       </c>
       <c r="L11" s="2">
-        <v>0</v>
+        <v>4.8125</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -1176,10 +1176,10 @@
         <v>17</v>
       </c>
       <c r="F12" s="2">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="G12" s="2">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="M12" s="2">
-        <v>1</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -1217,10 +1217,10 @@
         <v>17</v>
       </c>
       <c r="F13" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="G13" s="2">
-        <v>24</v>
+        <v>197</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -1229,16 +1229,16 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L13" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M13" s="2">
-        <v>0</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1258,10 +1258,10 @@
         <v>17</v>
       </c>
       <c r="F14" s="2">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="G14" s="2">
-        <v>15</v>
+        <v>209</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -1270,16 +1270,16 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M14" s="2">
-        <v>0</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -1299,10 +1299,10 @@
         <v>17</v>
       </c>
       <c r="F15" s="2">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -1311,16 +1311,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>4.916129032</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
+        <v>4.93548387</v>
       </c>
       <c r="L15" s="2">
-        <v>0</v>
+        <v>4.903225806</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -1340,10 +1340,10 @@
         <v>17</v>
       </c>
       <c r="F16" s="2">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="G16" s="2">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -1352,16 +1352,16 @@
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L16" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M16" s="2">
-        <v>0</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1381,10 +1381,10 @@
         <v>17</v>
       </c>
       <c r="F17" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G17" s="2">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -1393,16 +1393,16 @@
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>4.835714285</v>
       </c>
       <c r="L17" s="2">
-        <v>0</v>
+        <v>4.892857142</v>
       </c>
       <c r="M17" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -1422,10 +1422,10 @@
         <v>17</v>
       </c>
       <c r="F18" s="2">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -1434,16 +1434,16 @@
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>4.862068965</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
+        <v>4.919540229</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>4.804597701</v>
       </c>
       <c r="M18" s="2">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -1463,10 +1463,10 @@
         <v>17</v>
       </c>
       <c r="F19" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1475,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>5</v>
+        <v>4.869158878</v>
       </c>
       <c r="K19" s="2">
-        <v>5</v>
+        <v>4.887850467</v>
       </c>
       <c r="L19" s="2">
-        <v>5</v>
+        <v>4.887850467</v>
       </c>
       <c r="M19" s="2">
-        <v>1</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1504,10 +1504,10 @@
         <v>17</v>
       </c>
       <c r="F20" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G20" s="2">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -1516,16 +1516,16 @@
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>5</v>
+        <v>4.876404494</v>
       </c>
       <c r="K20" s="2">
-        <v>5</v>
+        <v>4.865168539</v>
       </c>
       <c r="L20" s="2">
-        <v>5</v>
+        <v>4.865168539</v>
       </c>
       <c r="M20" s="2">
-        <v>1</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -1545,10 +1545,10 @@
         <v>17</v>
       </c>
       <c r="F21" s="2">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G21" s="2">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="H21" s="2">
         <v>0</v>
@@ -1557,16 +1557,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>5</v>
+        <v>4.857142857</v>
       </c>
       <c r="K21" s="2">
-        <v>5</v>
+        <v>4.857142857</v>
       </c>
       <c r="L21" s="2">
-        <v>5</v>
+        <v>4.857142857</v>
       </c>
       <c r="M21" s="2">
-        <v>1</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1586,10 +1586,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G22" s="2">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2">
         <v>0</v>
@@ -1598,16 +1598,16 @@
         <v>0</v>
       </c>
       <c r="J22" s="2">
-        <v>0</v>
+        <v>4.905063291</v>
       </c>
       <c r="K22" s="2">
-        <v>0</v>
+        <v>4.911392405</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>4.879746835</v>
       </c>
       <c r="M22" s="2">
-        <v>0</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -1627,10 +1627,10 @@
         <v>17</v>
       </c>
       <c r="F23" s="2">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G23" s="2">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="H23" s="2">
         <v>0</v>
@@ -1639,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="J23" s="2">
-        <v>0</v>
+        <v>4.892857142</v>
       </c>
       <c r="K23" s="2">
-        <v>0</v>
+        <v>4.921428571</v>
       </c>
       <c r="L23" s="2">
-        <v>0</v>
+        <v>4.885714285</v>
       </c>
       <c r="M23" s="2">
-        <v>0</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -1668,10 +1668,10 @@
         <v>17</v>
       </c>
       <c r="F24" s="2">
-        <v>9</v>
+        <v>62</v>
       </c>
       <c r="G24" s="2">
-        <v>32</v>
+        <v>185</v>
       </c>
       <c r="H24" s="2">
         <v>0</v>
@@ -1680,16 +1680,16 @@
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M24" s="2">
-        <v>0</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -1709,10 +1709,10 @@
         <v>17</v>
       </c>
       <c r="F25" s="2">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="G25" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1721,16 +1721,16 @@
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>5</v>
+        <v>4.87755102</v>
       </c>
       <c r="K25" s="2">
-        <v>5</v>
+        <v>4.87755102</v>
       </c>
       <c r="L25" s="2">
-        <v>5</v>
+        <v>4.87755102</v>
       </c>
       <c r="M25" s="2">
-        <v>1</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1750,10 +1750,10 @@
         <v>17</v>
       </c>
       <c r="F26" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="G26" s="2">
-        <v>45</v>
+        <v>123</v>
       </c>
       <c r="H26" s="2">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>0</v>
+        <v>4.918238993</v>
       </c>
       <c r="K26" s="2">
-        <v>0</v>
+        <v>4.968553459</v>
       </c>
       <c r="L26" s="2">
-        <v>0</v>
+        <v>4.918238993</v>
       </c>
       <c r="M26" s="2">
-        <v>0</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -1791,10 +1791,10 @@
         <v>17</v>
       </c>
       <c r="F27" s="2">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G27" s="2">
-        <v>69</v>
+        <v>120</v>
       </c>
       <c r="H27" s="2">
         <v>0</v>
@@ -1803,16 +1803,16 @@
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>4.903448275</v>
       </c>
       <c r="K27" s="2">
-        <v>0</v>
+        <v>4.862068965</v>
       </c>
       <c r="L27" s="2">
-        <v>0</v>
+        <v>4.910344827</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1832,10 +1832,10 @@
         <v>17</v>
       </c>
       <c r="F28" s="2">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="G28" s="2">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1844,16 +1844,16 @@
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>5</v>
+        <v>4.888888888</v>
       </c>
       <c r="K28" s="2">
-        <v>5</v>
+        <v>4.888888888</v>
       </c>
       <c r="L28" s="2">
-        <v>5</v>
+        <v>4.888888888</v>
       </c>
       <c r="M28" s="2">
-        <v>1</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -1873,10 +1873,10 @@
         <v>97</v>
       </c>
       <c r="F29" s="3">
-        <v>425</v>
+        <v>1017</v>
       </c>
       <c r="G29" s="3">
-        <v>1073</v>
+        <v>3184</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>97</v>
